--- a/Spreadsheets/Throughput and Cycle Time Calculator.xlsx
+++ b/Spreadsheets/Throughput and Cycle Time Calculator.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Completed Date</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Throughput and Cycle Time Calculator</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Initial Version</t>
   </si>
 </sst>
 </file>
@@ -257,7 +263,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -273,6 +279,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -346,7 +353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -469,7 +475,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -634,11 +639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430531840"/>
-        <c:axId val="430533408"/>
+        <c:axId val="340992232"/>
+        <c:axId val="340984000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="430531840"/>
+        <c:axId val="340992232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +680,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -742,7 +746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430533408"/>
+        <c:crossAx val="340984000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -750,7 +754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430533408"/>
+        <c:axId val="340984000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +790,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -820,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430531840"/>
+        <c:crossAx val="340992232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1010,7 +1012,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1183,11 +1184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="33"/>
-        <c:axId val="430523216"/>
-        <c:axId val="430525568"/>
+        <c:axId val="340995368"/>
+        <c:axId val="340995760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430523216"/>
+        <c:axId val="340995368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,7 +1225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1291,7 +1291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430525568"/>
+        <c:crossAx val="340995760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1299,7 +1299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430525568"/>
+        <c:axId val="340995760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1336,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1370,7 +1369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430523216"/>
+        <c:crossAx val="340995368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1460,7 +1459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2421,11 +2419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="499519184"/>
-        <c:axId val="499528592"/>
+        <c:axId val="340997328"/>
+        <c:axId val="340996936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="499519184"/>
+        <c:axId val="340997328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,7 +2474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2543,12 +2540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499528592"/>
+        <c:crossAx val="340996936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499528592"/>
+        <c:axId val="340996936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2661,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499519184"/>
+        <c:crossAx val="340997328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2750,7 +2746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2853,7 +2848,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3020,11 +3014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="33"/>
-        <c:axId val="499504288"/>
-        <c:axId val="499504680"/>
+        <c:axId val="398425120"/>
+        <c:axId val="398420416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="499504288"/>
+        <c:axId val="398425120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3050,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3123,7 +3116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499504680"/>
+        <c:crossAx val="398420416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3131,7 +3124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499504680"/>
+        <c:axId val="398420416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3197,7 +3189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499504288"/>
+        <c:crossAx val="398425120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -5755,6 +5747,58 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Details</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> here: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://creativecommons.org/licenses/by-nc-sa/4.0/ and </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://creativecommons.org/licenses/by-nc-sa/4.0/legalcode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -6739,15 +6783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -6764,7 +6808,76 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -8310,7 +8423,7 @@
   <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13526,7 +13639,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ref="D37:D55" si="0">ROUNDUP(D36+(($J$32-$D$32)/20),0)</f>
+        <f t="shared" ref="D37:D54" si="0">ROUNDUP(D36+(($J$32-$D$32)/20),0)</f>
         <v>4</v>
       </c>
       <c r="E37" s="5">
@@ -21701,7 +21814,7 @@
         <v/>
       </c>
       <c r="B196" s="3" t="str">
-        <f t="shared" ref="B196:B259" si="27">IF(INDEX(StartDateValues,ROW(A196))&gt;0,INDEX(StartDateValues,ROW(A196)),"")</f>
+        <f t="shared" ref="B196:B252" si="27">IF(INDEX(StartDateValues,ROW(A196))&gt;0,INDEX(StartDateValues,ROW(A196)),"")</f>
         <v/>
       </c>
       <c r="C196" s="3" t="str">
